--- a/BillOfMaterials/FAMILY.xlsx
+++ b/BillOfMaterials/FAMILY.xlsx
@@ -451,6 +451,50 @@
         <a:xfrm>
           <a:off x="2966357" y="231322"/>
           <a:ext cx="8031292" cy="2552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1258512</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE04E4C8-F14A-4E0F-9ECD-E0E48BCC2B62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="748393" y="258536"/>
+          <a:ext cx="1190476" cy="866667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -762,7 +806,7 @@
   <dimension ref="B1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
